--- a/TestData/LV_T2017_GiftLogGiftRequestProcessGiftRequestsVerifyTheTotalsOfTheGiftsAreMeasuredSeparatelyFromTheCurrentYear.xlsx
+++ b/TestData/LV_T2017_GiftLogGiftRequestProcessGiftRequestsVerifyTheTotalsOfTheGiftsAreMeasuredSeparatelyFromTheCurrentYear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4897C942-B49D-4587-B5F2-7E72DA96F009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77570F49-8152-49C4-ADA6-05687168A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Client Gift Pre-approval</t>
   </si>
@@ -494,19 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -514,12 +514,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -536,14 +539,14 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -561,27 +564,27 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -595,27 +598,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -656,12 +659,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -711,18 +714,18 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -748,7 +751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
